--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -1,43 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurusaishreeshtirumalla/Dropbox/My Mac (gurusaishreesh-MBP.local)/Desktop/Email_bot/Email_bot/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE5F20AD-A12F-364D-AA3E-616B63827047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" xr2:uid="{1D63AF5B-8A04-604A-91CE-724F6858FA84}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="14"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,25 +63,88 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -370,13 +444,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCC505A-FA61-2F43-872A-F227EB624F25}">
-  <dimension ref="A1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col width="10.83203125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="24.6640625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="42.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="10.83203125" customWidth="1" style="1" min="4" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>S.NO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Contact name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Email address</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>myself</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>gojo.testing123@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>komal mam</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>komalkaur13@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>guru sai</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>guru.sai.shreesh@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>jennie</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>jennie@blackpink.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>lisa</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>lisa@blackpink.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>akshara</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>akshara123@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>guru</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>guru</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -1,54 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurusaishreeshtirumalla/Dropbox/My Mac (gurusaishreesh-MBP.local)/Desktop/Email_bot/Email_bot/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A02612-F3CE-8940-9EDE-78ADA4F69A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>S.NO</t>
+  </si>
+  <si>
+    <t>Contact name</t>
+  </si>
+  <si>
+    <t>Email address</t>
+  </si>
+  <si>
+    <t>myself</t>
+  </si>
+  <si>
+    <t>gojo.testing123@gmail.com</t>
+  </si>
+  <si>
+    <t>komal mam</t>
+  </si>
+  <si>
+    <t>komalkaur13@gmail.com</t>
+  </si>
+  <si>
+    <t>guru sai</t>
+  </si>
+  <si>
+    <t>guru.sai.shreesh@gmail.com</t>
+  </si>
+  <si>
+    <t>jennie</t>
+  </si>
+  <si>
+    <t>jennie@blackpink.com</t>
+  </si>
+  <si>
+    <t>lisa</t>
+  </si>
+  <si>
+    <t>lisa@blackpink.com</t>
+  </si>
+  <si>
+    <t>akshara</t>
+  </si>
+  <si>
+    <t>akshara123@gmail.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <sz val="14"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,84 +122,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -444,152 +441,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="10.83203125" customWidth="1" style="1" min="1" max="1"/>
-    <col width="24.6640625" customWidth="1" style="1" min="2" max="2"/>
-    <col width="42.6640625" customWidth="1" style="1" min="3" max="3"/>
-    <col width="10.83203125" customWidth="1" style="1" min="4" max="16384"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>S.NO</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Contact name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Email address</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>myself</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>gojo.testing123@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>komal mam</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>komalkaur13@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>guru sai</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>guru.sai.shreesh@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>jennie</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>jennie@blackpink.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>lisa</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>lisa@blackpink.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>akshara</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>akshara123@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>guru</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>guru</t>
-        </is>
-      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
